--- a/obelix/ligand_test.xlsx
+++ b/obelix/ligand_test.xlsx
@@ -412,15 +412,18 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>96183-46-9</v>
+        <v>skeleton_1</v>
       </c>
       <c r="B2" t="str">
         <v>CC([P:1](Br)Br)CC([P:1](Br)Br)C</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>skeleton_2</v>
+      </c>
       <c r="B3" t="str">
-        <v/>
+        <v>CCCC([P:1](Br)Br)CCCC([P:1](Br)Br)C</v>
       </c>
     </row>
   </sheetData>
